--- a/excel/finished/wg8#高炉/出铁统计报表/8高炉鱼雷罐装载率.xlsx
+++ b/excel/finished/wg8#高炉/出铁统计报表/8高炉鱼雷罐装载率.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\8高炉\炉内报表\cn_zh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\出铁统计报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1F5659-FEB6-4336-BA7D-DFFA6B860F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470B7759-A5CA-4B6A-A962-BBFF251941C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="皮重合格率" sheetId="2" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>合计</t>
-  </si>
-  <si>
     <t>version</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -76,20 +73,63 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>夜子项</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜子项</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>夜母项</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜母项</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>白子项</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白子项</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>白母项</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白母项</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合计</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -100,7 +140,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -124,6 +164,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -135,11 +176,13 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -152,7 +195,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -160,15 +202,30 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -379,7 +436,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,32 +452,8 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,19 +462,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,6 +502,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,58 +814,58 @@
   <dimension ref="B1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J6" sqref="J6:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.296875" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="18"/>
+      <c r="C3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -819,8 +873,8 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -828,11 +882,11 @@
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -858,743 +912,743 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="23">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="11" t="str">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="str">
         <f>IF(ISERROR(C6/D6),"",C6/D6*100)</f>
         <v/>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="11" t="str">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25" t="str">
         <f>IF(ISERROR(F6/G6),"",F6/G6*100)</f>
         <v/>
       </c>
-      <c r="I6" s="7" t="str">
+      <c r="I6" s="26" t="str">
         <f>IF(ISERROR((C6+F6)/(D6+G6)),"",(C6+F6)/(D6+G6)*100)</f>
         <v/>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="31">
         <f>IF(ISERROR((C37+F37)/(D37+G37)*100),0,(C37+F37)/(D37+G37)*100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="11" t="str">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="str">
         <f t="shared" ref="E7:E37" si="0">IF(ISERROR(C7/D7),"",C7/D7*100)</f>
         <v/>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="11" t="str">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="str">
         <f t="shared" ref="H7:H37" si="1">IF(ISERROR(F7/G7),"",F7/G7*100)</f>
         <v/>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="26" t="str">
         <f t="shared" ref="I7:I37" si="2">IF(ISERROR((C7+F7)/(D7+G7)),"",(C7+F7)/(D7+G7)*100)</f>
         <v/>
       </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23">
         <v>3</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I8" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I8" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I9" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I9" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="23">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I10" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="23">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I11" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="23">
         <v>7</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="23">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I13" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="23">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="23">
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I15" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I15" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="23">
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I16" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="23">
         <v>12</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I17" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I17" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="23">
         <v>13</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I18" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="23">
         <v>14</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I19" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I19" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="23">
         <v>15</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I20" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="23">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="23">
         <v>17</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="23">
         <v>18</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I23" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="23">
         <v>19</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I24" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I24" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="23">
         <v>20</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I25" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I25" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="23">
         <v>21</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I26" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="23">
         <v>22</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I27" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I27" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="23">
         <v>23</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I28" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I28" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="23">
         <v>24</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I29" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I29" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="23">
         <v>25</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="23">
         <v>26</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I31" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I31" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="23">
         <v>27</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I32" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J32" s="31"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="23">
         <v>28</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I33" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="5">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I33" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J33" s="31"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="23">
         <v>29</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I34" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I34" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J34" s="31"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="23">
         <v>30</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I35" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J35" s="31"/>
+    </row>
+    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="23">
         <v>31</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I36" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="28">
         <f t="shared" ref="C37:G37" si="3">SUM(C6:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="9">
+      <c r="E37" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I37" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J37" s="21"/>
+      <c r="H37" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I37" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J37" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1621,16 +1675,16 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="10"/>
+    <col min="1" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1649,9 +1703,9 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="10"/>
+    <col min="1" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
